--- a/resources/import/leads_data.xlsx
+++ b/resources/import/leads_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID (leave empty if new lead)</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>Assigned To (username) (Logged In User will own the lead if a row is empty)</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>upload</t>
-  </si>
-  <si>
-    <t>01221210012</t>
   </si>
   <si>
     <t>Available Sales Users</t>
@@ -383,17 +374,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
@@ -417,7 +402,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="N4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">

--- a/resources/import/leads_data.xlsx
+++ b/resources/import/leads_data.xlsx
@@ -37,7 +37,7 @@
     <t>Assigned To (username) (Logged In User will own the lead if a row is empty)</t>
   </si>
   <si>
-    <t>Available Sales Users</t>
+    <t>Available Users</t>
   </si>
 </sst>
 </file>
